--- a/SchedulingData/dynamic14/pso/scheduling2_16.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>267.84</v>
+        <v>237.98</v>
       </c>
       <c r="D2" t="n">
-        <v>318.88</v>
+        <v>313.18</v>
       </c>
       <c r="E2" t="n">
-        <v>10.872</v>
+        <v>10.812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>226.5</v>
+        <v>313.18</v>
       </c>
       <c r="D3" t="n">
-        <v>286.6</v>
+        <v>358.28</v>
       </c>
       <c r="E3" t="n">
-        <v>10.54</v>
+        <v>7.432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>239.82</v>
+        <v>231.8</v>
       </c>
       <c r="D4" t="n">
-        <v>298.82</v>
+        <v>288.24</v>
       </c>
       <c r="E4" t="n">
-        <v>14.708</v>
+        <v>13.336</v>
       </c>
     </row>
     <row r="5">
@@ -523,93 +523,93 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>261.62</v>
+        <v>358.28</v>
       </c>
       <c r="D5" t="n">
-        <v>326.7</v>
+        <v>419.04</v>
       </c>
       <c r="E5" t="n">
-        <v>10.98</v>
+        <v>3.956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>318.88</v>
+        <v>243.9</v>
       </c>
       <c r="D6" t="n">
-        <v>400.26</v>
+        <v>288.26</v>
       </c>
       <c r="E6" t="n">
-        <v>7.344</v>
+        <v>13.744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>400.26</v>
+        <v>288.24</v>
       </c>
       <c r="D7" t="n">
-        <v>456.42</v>
+        <v>339.2</v>
       </c>
       <c r="E7" t="n">
-        <v>4.368</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>286.6</v>
+        <v>204.98</v>
       </c>
       <c r="D8" t="n">
-        <v>330.04</v>
+        <v>280.54</v>
       </c>
       <c r="E8" t="n">
-        <v>7.836</v>
+        <v>16.936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>231.44</v>
+        <v>288.26</v>
       </c>
       <c r="D9" t="n">
-        <v>295.24</v>
+        <v>348.36</v>
       </c>
       <c r="E9" t="n">
-        <v>12.076</v>
+        <v>9.364000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>456.42</v>
+        <v>280.54</v>
       </c>
       <c r="D10" t="n">
-        <v>513.02</v>
+        <v>355.64</v>
       </c>
       <c r="E10" t="n">
-        <v>0.348</v>
+        <v>12.556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>513.02</v>
+        <v>243.48</v>
       </c>
       <c r="D11" t="n">
-        <v>603.8200000000001</v>
+        <v>316.18</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>12.032</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>330.04</v>
+        <v>348.36</v>
       </c>
       <c r="D12" t="n">
-        <v>375.92</v>
+        <v>394.26</v>
       </c>
       <c r="E12" t="n">
-        <v>4.868</v>
+        <v>6.404</v>
       </c>
     </row>
     <row r="13">
@@ -675,74 +675,74 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>295.24</v>
+        <v>316.18</v>
       </c>
       <c r="D13" t="n">
-        <v>340.56</v>
+        <v>374.24</v>
       </c>
       <c r="E13" t="n">
-        <v>9.164</v>
+        <v>8.336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>375.92</v>
+        <v>266.16</v>
       </c>
       <c r="D14" t="n">
-        <v>429.98</v>
+        <v>347.26</v>
       </c>
       <c r="E14" t="n">
-        <v>1.592</v>
+        <v>8.923999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>429.98</v>
+        <v>374.24</v>
       </c>
       <c r="D15" t="n">
-        <v>528.3</v>
+        <v>456.84</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>3.716</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>244.56</v>
+        <v>456.84</v>
       </c>
       <c r="D16" t="n">
-        <v>293.84</v>
+        <v>539.58</v>
       </c>
       <c r="E16" t="n">
-        <v>13.256</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="17">
@@ -751,131 +751,131 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>340.56</v>
+        <v>539.58</v>
       </c>
       <c r="D17" t="n">
-        <v>386.74</v>
+        <v>638.86</v>
       </c>
       <c r="E17" t="n">
-        <v>6.656</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>326.7</v>
+        <v>347.26</v>
       </c>
       <c r="D18" t="n">
-        <v>402.76</v>
+        <v>398.4</v>
       </c>
       <c r="E18" t="n">
-        <v>7.504</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>298.82</v>
+        <v>355.64</v>
       </c>
       <c r="D19" t="n">
-        <v>363.34</v>
+        <v>424.24</v>
       </c>
       <c r="E19" t="n">
-        <v>10.396</v>
+        <v>8.295999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>603.8200000000001</v>
+        <v>419.04</v>
       </c>
       <c r="D20" t="n">
-        <v>669.3200000000001</v>
+        <v>497.24</v>
       </c>
       <c r="E20" t="n">
-        <v>27.58</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>669.3200000000001</v>
+        <v>497.24</v>
       </c>
       <c r="D21" t="n">
-        <v>702.76</v>
+        <v>563.77</v>
       </c>
       <c r="E21" t="n">
-        <v>24.876</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>528.3</v>
+        <v>638.86</v>
       </c>
       <c r="D22" t="n">
-        <v>571.92</v>
+        <v>695.14</v>
       </c>
       <c r="E22" t="n">
-        <v>26.828</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>363.34</v>
+        <v>695.14</v>
       </c>
       <c r="D23" t="n">
-        <v>427.56</v>
+        <v>739.42</v>
       </c>
       <c r="E23" t="n">
-        <v>6.084</v>
+        <v>24.224</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>427.56</v>
+        <v>398.4</v>
       </c>
       <c r="D24" t="n">
-        <v>504.48</v>
+        <v>477.52</v>
       </c>
       <c r="E24" t="n">
-        <v>1.492</v>
+        <v>1.128</v>
       </c>
     </row>
     <row r="25">
@@ -903,14 +903,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>504.48</v>
+        <v>477.52</v>
       </c>
       <c r="D25" t="n">
-        <v>597.9</v>
+        <v>571.66</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
@@ -918,135 +918,135 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>571.92</v>
+        <v>424.24</v>
       </c>
       <c r="D26" t="n">
-        <v>653.62</v>
+        <v>475.38</v>
       </c>
       <c r="E26" t="n">
-        <v>23.748</v>
+        <v>4.812</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>402.76</v>
+        <v>394.26</v>
       </c>
       <c r="D27" t="n">
-        <v>459.1</v>
+        <v>454.92</v>
       </c>
       <c r="E27" t="n">
-        <v>3.5</v>
+        <v>2.948</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>386.74</v>
+        <v>475.38</v>
       </c>
       <c r="D28" t="n">
-        <v>447.58</v>
+        <v>519.54</v>
       </c>
       <c r="E28" t="n">
-        <v>3.172</v>
+        <v>1.536</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>653.62</v>
+        <v>519.54</v>
       </c>
       <c r="D29" t="n">
-        <v>709.38</v>
+        <v>622.97</v>
       </c>
       <c r="E29" t="n">
-        <v>20.772</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>702.76</v>
+        <v>339.2</v>
       </c>
       <c r="D30" t="n">
-        <v>736.2</v>
+        <v>391.54</v>
       </c>
       <c r="E30" t="n">
-        <v>22.172</v>
+        <v>7.236</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>459.1</v>
+        <v>391.54</v>
       </c>
       <c r="D31" t="n">
-        <v>533.8</v>
+        <v>433.22</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>3.708</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>533.8</v>
+        <v>433.22</v>
       </c>
       <c r="D32" t="n">
-        <v>607.3</v>
+        <v>476.78</v>
       </c>
       <c r="E32" t="n">
-        <v>24.84</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="33">
@@ -1055,188 +1055,226 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>293.84</v>
+        <v>476.78</v>
       </c>
       <c r="D33" t="n">
-        <v>329</v>
+        <v>566.54</v>
       </c>
       <c r="E33" t="n">
-        <v>10.88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>329</v>
+        <v>454.92</v>
       </c>
       <c r="D34" t="n">
-        <v>424.1</v>
+        <v>508.16</v>
       </c>
       <c r="E34" t="n">
-        <v>6.96</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>424.1</v>
+        <v>508.16</v>
       </c>
       <c r="D35" t="n">
-        <v>498.76</v>
+        <v>589.47</v>
       </c>
       <c r="E35" t="n">
-        <v>4.584</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>607.3</v>
+        <v>566.54</v>
       </c>
       <c r="D36" t="n">
-        <v>669.5599999999999</v>
+        <v>643.74</v>
       </c>
       <c r="E36" t="n">
-        <v>22.244</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>597.9</v>
+        <v>563.77</v>
       </c>
       <c r="D37" t="n">
-        <v>655.9</v>
+        <v>602.87</v>
       </c>
       <c r="E37" t="n">
-        <v>27.36</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>447.58</v>
+        <v>571.66</v>
       </c>
       <c r="D38" t="n">
-        <v>532.74</v>
+        <v>650.36</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>532.74</v>
+        <v>643.74</v>
       </c>
       <c r="D39" t="n">
-        <v>612.26</v>
+        <v>698.9</v>
       </c>
       <c r="E39" t="n">
-        <v>25.688</v>
+        <v>24.544</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>669.5599999999999</v>
+        <v>622.97</v>
       </c>
       <c r="D40" t="n">
-        <v>757.66</v>
+        <v>688.6900000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>20.004</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>498.76</v>
+        <v>589.47</v>
       </c>
       <c r="D41" t="n">
-        <v>593.36</v>
+        <v>654.97</v>
       </c>
       <c r="E41" t="n">
-        <v>0.204</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>593.36</v>
+        <v>602.87</v>
       </c>
       <c r="D42" t="n">
-        <v>659.95</v>
+        <v>655.37</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>pond41</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>654.97</v>
+      </c>
+      <c r="D43" t="n">
+        <v>693.41</v>
+      </c>
+      <c r="E43" t="n">
+        <v>24.876</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>pond2</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>650.36</v>
+      </c>
+      <c r="D44" t="n">
+        <v>715.42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>25.384</v>
       </c>
     </row>
   </sheetData>
